--- a/data/trans_dic/P22_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.148037189405052</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2637886924073426</v>
+        <v>0.2637886924073425</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1297899095301988</v>
@@ -697,7 +697,7 @@
         <v>0.1200685539375364</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2354805571220184</v>
+        <v>0.2354805571220183</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1048501276414472</v>
+        <v>0.102635740156774</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07075399971476157</v>
+        <v>0.07421947507232626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07169735024376263</v>
+        <v>0.06913325003324659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1773384635957038</v>
+        <v>0.1726150714398384</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09120667713521526</v>
+        <v>0.09279457637961171</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07822881788620176</v>
+        <v>0.07824862786448823</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1100825106045114</v>
+        <v>0.1096581327035884</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2338057443370932</v>
+        <v>0.228269869236395</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1075946037213822</v>
+        <v>0.1056169001470543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0830217565562449</v>
+        <v>0.08366011495968349</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09823381328897031</v>
+        <v>0.09600791563667399</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2133839562103245</v>
+        <v>0.2133384112744146</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1648144274998478</v>
+        <v>0.1628407651886244</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1360770777228759</v>
+        <v>0.1326837654381669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1286088862584365</v>
+        <v>0.1279200645825219</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2460057121631866</v>
+        <v>0.2467582715015915</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1684049896304047</v>
+        <v>0.1719797515638018</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1507448894648766</v>
+        <v>0.1539207267763419</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1917524076119584</v>
+        <v>0.1958095901697225</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.299503266741974</v>
+        <v>0.2969657909157282</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1568055510386334</v>
+        <v>0.155417817703685</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1310835109336778</v>
+        <v>0.1331318608438949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1482888273288537</v>
+        <v>0.1460148737228616</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2623222936100868</v>
+        <v>0.2596104929683296</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.06192101246660867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2000258116729081</v>
+        <v>0.200025811672908</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.09395445563003377</v>
@@ -821,7 +821,7 @@
         <v>0.09360551176319841</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2044107177815505</v>
+        <v>0.2044107177815504</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.09935530688959184</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0741533751122616</v>
+        <v>0.07276092187234914</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05879542565032613</v>
+        <v>0.05996862314194088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03973956224513965</v>
+        <v>0.03787411610926901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1602331437399494</v>
+        <v>0.1605080152834527</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06772278015833715</v>
+        <v>0.06534453040180459</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06396883783412567</v>
+        <v>0.06399427683652038</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06519348071050135</v>
+        <v>0.06661505076673925</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1718851660497719</v>
+        <v>0.1740159136753071</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07788982356463166</v>
+        <v>0.07570349461810903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06741457413564406</v>
+        <v>0.0685453611780153</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05841492773363459</v>
+        <v>0.05831370337476101</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1774210420416036</v>
+        <v>0.1791568915879365</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1479895107773387</v>
+        <v>0.1450382583115174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1196976606737807</v>
+        <v>0.1197232000014337</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09137663987037133</v>
+        <v>0.0914832948994274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2393665369286503</v>
+        <v>0.2403612066024831</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1269924517753301</v>
+        <v>0.1254121093510092</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1341231722755421</v>
+        <v>0.1294652268968829</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1276780120683703</v>
+        <v>0.1298799018087916</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2397329817499139</v>
+        <v>0.2372392783840031</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1233154164544176</v>
+        <v>0.1250695072354096</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.110915957040158</v>
+        <v>0.1150038372577576</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1004626987610229</v>
+        <v>0.1005815802381331</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2308262699500553</v>
+        <v>0.2302999268229889</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02751741702109014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07120175745905016</v>
+        <v>0.07120175745905018</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01292485394544306</v>
@@ -957,7 +957,7 @@
         <v>0.04668379275361789</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1011733556061743</v>
+        <v>0.1011733556061742</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05254406291578619</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04709125825333598</v>
+        <v>0.04441872644705655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02742215701895365</v>
+        <v>0.02728786031954629</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0155051664178489</v>
+        <v>0.01430910018024485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04746258351022715</v>
+        <v>0.04958967795586336</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02289357267607435</v>
+        <v>0.01944414795922644</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02274340784923902</v>
+        <v>0.02274749452035232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07200399195716102</v>
+        <v>0.07004403829439765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03714555857838463</v>
+        <v>0.03800555297166174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02932132142549119</v>
+        <v>0.03062190522351605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02077841293224459</v>
+        <v>0.02072444570855739</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0616712060690638</v>
+        <v>0.06058084914320602</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08996506433827965</v>
+        <v>0.08828145785116044</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06164264274416659</v>
+        <v>0.06275860181138375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0461610855870528</v>
+        <v>0.04778206297217525</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1011707088278632</v>
+        <v>0.09917235499621831</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04526443701116687</v>
+        <v>0.03955775217446805</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07417989054800204</v>
+        <v>0.06929900881985657</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08148542289807913</v>
+        <v>0.08744028463507654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1424974227530027</v>
+        <v>0.1382969094616865</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07219076711932988</v>
+        <v>0.07324539715113279</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05787929043645056</v>
+        <v>0.05999654519324085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04868545569777939</v>
+        <v>0.04849420282575627</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1033557766765208</v>
+        <v>0.1009662513524132</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.0195963474003045</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06488326769064642</v>
+        <v>0.06488326769064644</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03485638199314655</v>
+        <v>0.03515421176519375</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02380103307696213</v>
+        <v>0.02328816835179944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01023286007300778</v>
+        <v>0.01025403920248212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0371419802277198</v>
+        <v>0.03592236415791474</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02641981010762239</v>
+        <v>0.02788875659586602</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02560922067995146</v>
+        <v>0.0259627617492845</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01306764150297616</v>
+        <v>0.0129746322795128</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07058067784646381</v>
+        <v>0.07101418502273758</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03497906867115383</v>
+        <v>0.03518367799750577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02684667251869411</v>
+        <v>0.02680470732410296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01409885037162307</v>
+        <v>0.0138673265509109</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05404091176060983</v>
+        <v>0.05439278249908916</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05790843400531611</v>
+        <v>0.05913817814749319</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04514246820434517</v>
+        <v>0.04507886223812986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02663832596240258</v>
+        <v>0.0269900516607367</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06597580917311785</v>
+        <v>0.06400893055932996</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05664764932475599</v>
+        <v>0.05750986577221112</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05525367964025897</v>
+        <v>0.05246926563001083</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03438768682969127</v>
+        <v>0.03538964220439835</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1051189205825834</v>
+        <v>0.1064701548016437</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05407176873673046</v>
+        <v>0.05484473811498977</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04395576722377237</v>
+        <v>0.04432060555638431</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02742802653984238</v>
+        <v>0.0271697389745544</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07596168101471425</v>
+        <v>0.07672621106087962</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02837083651494631</v>
+        <v>0.02874865543526603</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007357930307326625</v>
+        <v>0.007407498470533738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005050908444461645</v>
+        <v>0.005032136390669613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01814536546810024</v>
+        <v>0.01676541865170576</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01584491591371258</v>
+        <v>0.01704482684554406</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007086223394841236</v>
+        <v>0.007953667954926965</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009153080217011812</v>
+        <v>0.008709841034864713</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02561330898503473</v>
+        <v>0.0257267123912336</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02460068741661138</v>
+        <v>0.02343698539190123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.009766346382151502</v>
+        <v>0.008875981481603594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00906472233231469</v>
+        <v>0.009118018534730125</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0261873997482318</v>
+        <v>0.0256160133861268</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07643702975194637</v>
+        <v>0.07759449778619835</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02860113922517889</v>
+        <v>0.03034630285635826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02220482944962734</v>
+        <v>0.02319263381771633</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04924796131791328</v>
+        <v>0.05242732176432475</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0437863614934085</v>
+        <v>0.04674692299679873</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02481297182021748</v>
+        <v>0.02663691787406595</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03096032906169741</v>
+        <v>0.02993185321501781</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04753684042198543</v>
+        <v>0.04794453363792446</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04846118302271602</v>
+        <v>0.0474551594872069</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02374174645103659</v>
+        <v>0.02306586786839152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02255609247776237</v>
+        <v>0.02318908244254412</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04428503771867164</v>
+        <v>0.04470281337423661</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.02559793690271723</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.04681249285563213</v>
+        <v>0.04681249285563214</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03950230327127952</v>
@@ -1377,7 +1377,7 @@
         <v>0.02974878519414461</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05278649882213781</v>
+        <v>0.0527864988221378</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008555455755028191</v>
+        <v>0.008495492486123113</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01011994946185021</v>
+        <v>0.007292517511164293</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02500684955550348</v>
+        <v>0.02575780929876086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02848694425491839</v>
+        <v>0.02806155283184667</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03330853473524302</v>
+        <v>0.03401785079244313</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01784511293904135</v>
+        <v>0.01915458200107573</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01676170337484666</v>
+        <v>0.01607905430121423</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03472571802575304</v>
+        <v>0.03357595683487883</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03125950402506217</v>
+        <v>0.03049691669754664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0191281287987274</v>
+        <v>0.01910560638697415</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02101899539209635</v>
+        <v>0.02137964652094291</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03900708333060282</v>
+        <v>0.03804904353652692</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03778113290482929</v>
+        <v>0.03794776559618371</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04309585211475336</v>
+        <v>0.04321247110052546</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07451033476176738</v>
+        <v>0.07794836916843555</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1494947796843057</v>
+        <v>0.1540512367199074</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05581917651855146</v>
+        <v>0.05582827894577827</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04004864183049168</v>
+        <v>0.04041077637586618</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03631404508015162</v>
+        <v>0.03694921549012913</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06484000654757348</v>
+        <v>0.06489259769398956</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05245073553491909</v>
+        <v>0.05024233167919429</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03824452438252381</v>
+        <v>0.03666926214428907</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04186659729137688</v>
+        <v>0.04118366098608001</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07575035747940149</v>
+        <v>0.07400739055522296</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.03946683428867408</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1009102998507422</v>
+        <v>0.1009102998507423</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05605399308722367</v>
+        <v>0.05748008527692319</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03881979323980367</v>
+        <v>0.0386067252286592</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02919660050904821</v>
+        <v>0.02885597668110289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08728837426521377</v>
+        <v>0.08713111612308939</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04477755578671409</v>
+        <v>0.04490784651076675</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03572804138531244</v>
+        <v>0.03556238970216082</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03686474243036467</v>
+        <v>0.03602727575042789</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09498422195533728</v>
+        <v>0.09538465565566621</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05300752894022575</v>
+        <v>0.05297800861865903</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03930427485000194</v>
+        <v>0.0392574485438304</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03427654861775949</v>
+        <v>0.03407600556894547</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0939220745225388</v>
+        <v>0.09394727242861788</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07438451166416309</v>
+        <v>0.07495886900013943</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05363468142296805</v>
+        <v>0.05377662508858788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04162108066609434</v>
+        <v>0.0421183316024225</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1099539731792978</v>
+        <v>0.1098590642243317</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05937326774691368</v>
+        <v>0.0601140385949673</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04937289112853205</v>
+        <v>0.04943487293257702</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05084241443364575</v>
+        <v>0.05060400538819149</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.113200012230764</v>
+        <v>0.1130424260600743</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06431356004364176</v>
+        <v>0.06458944702636296</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04920606859875269</v>
+        <v>0.04995524779662548</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04440005710593871</v>
+        <v>0.04454456121900893</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1088731081885126</v>
+        <v>0.1081880936298919</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49518</v>
+        <v>48472</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30934</v>
+        <v>32450</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30765</v>
+        <v>29665</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>97646</v>
+        <v>95045</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27971</v>
+        <v>28458</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24599</v>
+        <v>24606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>38205</v>
+        <v>38057</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>114193</v>
+        <v>111490</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>83811</v>
+        <v>82271</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>62405</v>
+        <v>62884</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>76244</v>
+        <v>74516</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>221712</v>
+        <v>221665</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>77837</v>
+        <v>76905</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59494</v>
+        <v>58011</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55185</v>
+        <v>54889</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>135455</v>
+        <v>135870</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51646</v>
+        <v>52743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47402</v>
+        <v>48401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>66549</v>
+        <v>67957</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>146281</v>
+        <v>145041</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>122144</v>
+        <v>121063</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>98531</v>
+        <v>100071</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>115094</v>
+        <v>113329</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>272560</v>
+        <v>269743</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27209</v>
+        <v>26698</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24623</v>
+        <v>25115</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14953</v>
+        <v>14251</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77427</v>
+        <v>77559</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25184</v>
+        <v>24299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21622</v>
+        <v>21631</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24270</v>
+        <v>24799</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>72732</v>
+        <v>73634</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>57545</v>
+        <v>55930</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>51020</v>
+        <v>51876</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>43726</v>
+        <v>43650</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>160806</v>
+        <v>162380</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54302</v>
+        <v>53219</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50129</v>
+        <v>50140</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34382</v>
+        <v>34422</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>115665</v>
+        <v>116145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>47224</v>
+        <v>46636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45335</v>
+        <v>43761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47531</v>
+        <v>48351</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>101441</v>
+        <v>100386</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91105</v>
+        <v>92401</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>83942</v>
+        <v>87036</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>75200</v>
+        <v>75289</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>209211</v>
+        <v>208733</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25503</v>
+        <v>24056</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17260</v>
+        <v>17175</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8092</v>
+        <v>7468</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22384</v>
+        <v>23387</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5955</v>
+        <v>5058</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13501</v>
+        <v>13133</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26349</v>
+        <v>26959</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26083</v>
+        <v>27240</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>14296</v>
+        <v>14259</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40648</v>
+        <v>39929</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48722</v>
+        <v>47811</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38799</v>
+        <v>39501</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24092</v>
+        <v>24938</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47713</v>
+        <v>46771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7595</v>
+        <v>6637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19296</v>
+        <v>18027</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13537</v>
+        <v>14526</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26718</v>
+        <v>25930</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51209</v>
+        <v>51957</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>51486</v>
+        <v>53370</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>33497</v>
+        <v>33366</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>68123</v>
+        <v>66548</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43054</v>
+        <v>43422</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27562</v>
+        <v>26968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11755</v>
+        <v>11779</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42039</v>
+        <v>40658</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18871</v>
+        <v>19921</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19633</v>
+        <v>19905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10746</v>
+        <v>10669</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60785</v>
+        <v>61158</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>68190</v>
+        <v>68589</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>51671</v>
+        <v>51591</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>27789</v>
+        <v>27333</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>107706</v>
+        <v>108408</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71527</v>
+        <v>73046</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52276</v>
+        <v>52203</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30600</v>
+        <v>31004</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>74674</v>
+        <v>72448</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40463</v>
+        <v>41078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42361</v>
+        <v>40226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28278</v>
+        <v>29102</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>90530</v>
+        <v>91693</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>105411</v>
+        <v>106918</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>84601</v>
+        <v>85303</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>54061</v>
+        <v>53552</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>151396</v>
+        <v>152919</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9946</v>
+        <v>10078</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3757</v>
+        <v>3782</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3129</v>
+        <v>3118</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10306</v>
+        <v>9522</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9012</v>
+        <v>9694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5396</v>
+        <v>6057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6748</v>
+        <v>6421</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21262</v>
+        <v>21356</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22616</v>
+        <v>21546</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12424</v>
+        <v>11291</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12299</v>
+        <v>12371</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>36612</v>
+        <v>35814</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26795</v>
+        <v>27201</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14604</v>
+        <v>15495</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13757</v>
+        <v>14369</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27971</v>
+        <v>29777</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24904</v>
+        <v>26587</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18896</v>
+        <v>20285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22826</v>
+        <v>22068</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>39462</v>
+        <v>39800</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44551</v>
+        <v>43626</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>30202</v>
+        <v>29343</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30604</v>
+        <v>31463</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>61915</v>
+        <v>62499</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2543</v>
+        <v>2525</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2701</v>
+        <v>1946</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7181</v>
+        <v>7396</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6758</v>
+        <v>6657</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>41527</v>
+        <v>42411</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19796</v>
+        <v>21249</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>18115</v>
+        <v>17378</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>29318</v>
+        <v>28348</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>48265</v>
+        <v>47087</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>26325</v>
+        <v>26294</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>28752</v>
+        <v>29245</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>42187</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11231</v>
+        <v>11281</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11502</v>
+        <v>11533</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21395</v>
+        <v>22382</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>35464</v>
+        <v>36545</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>69592</v>
+        <v>69603</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>44428</v>
+        <v>44830</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>39247</v>
+        <v>39933</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>54743</v>
+        <v>54788</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>80984</v>
+        <v>77574</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>52633</v>
+        <v>50465</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>57269</v>
+        <v>56335</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>81925</v>
+        <v>80040</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>182948</v>
+        <v>187602</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>132800</v>
+        <v>132071</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>98762</v>
+        <v>97610</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>300488</v>
+        <v>299947</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>151173</v>
+        <v>151613</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>126839</v>
+        <v>126251</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>129977</v>
+        <v>127025</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>345236</v>
+        <v>346692</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>351964</v>
+        <v>351768</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>273992</v>
+        <v>273666</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>236798</v>
+        <v>235412</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>664700</v>
+        <v>664879</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>242775</v>
+        <v>244649</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>183480</v>
+        <v>183966</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>140790</v>
+        <v>142472</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>378514</v>
+        <v>378187</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>200450</v>
+        <v>202951</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>175280</v>
+        <v>175500</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>179260</v>
+        <v>178419</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>411445</v>
+        <v>410872</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>427034</v>
+        <v>428866</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>343018</v>
+        <v>348241</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>306735</v>
+        <v>307734</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>770511</v>
+        <v>765663</v>
       </c>
     </row>
     <row r="32">
